--- a/dumbarton_det_files_update/oppo 2200' W of Toll Plaza 426454/2025-03-16_426454.xlsx
+++ b/dumbarton_det_files_update/oppo 2200' W of Toll Plaza 426454/2025-03-16_426454.xlsx
@@ -189,7 +189,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1261"/>
+  <dimension ref="A1:K1317"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -44353,6 +44353,1966 @@
         <v>36</v>
       </c>
       <c r="K1261" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>45784.5</v>
+      </c>
+      <c r="B1262" s="2" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C1262" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1262" s="2" t="n">
+        <v>645.0</v>
+      </c>
+      <c r="E1262" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1262" s="2" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="G1262" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1262" s="2" t="n">
+        <v>1736.0</v>
+      </c>
+      <c r="I1262" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1262" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1262" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>45784.541666667</v>
+      </c>
+      <c r="B1263" s="2" t="n">
+        <v>653.0</v>
+      </c>
+      <c r="C1263" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1263" s="2" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="E1263" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1263" s="2" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="G1263" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1263" s="2" t="n">
+        <v>2144.0</v>
+      </c>
+      <c r="I1263" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J1263" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1263" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>45784.583333333</v>
+      </c>
+      <c r="B1264" s="2" t="n">
+        <v>910.0</v>
+      </c>
+      <c r="C1264" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1264" s="2" t="n">
+        <v>1036.0</v>
+      </c>
+      <c r="E1264" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1264" s="2" t="n">
+        <v>903.0</v>
+      </c>
+      <c r="G1264" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1264" s="2" t="n">
+        <v>2849.0</v>
+      </c>
+      <c r="I1264" s="3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J1264" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1264" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>45784.625</v>
+      </c>
+      <c r="B1265" s="2" t="n">
+        <v>1194.0</v>
+      </c>
+      <c r="C1265" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1265" s="2" t="n">
+        <v>1309.0</v>
+      </c>
+      <c r="E1265" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1265" s="2" t="n">
+        <v>1129.0</v>
+      </c>
+      <c r="G1265" s="3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1265" s="2" t="n">
+        <v>3632.0</v>
+      </c>
+      <c r="I1265" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J1265" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1265" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>45784.666666667</v>
+      </c>
+      <c r="B1266" s="2" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="C1266" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1266" s="2" t="n">
+        <v>1441.0</v>
+      </c>
+      <c r="E1266" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1266" s="2" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="G1266" s="3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1266" s="2" t="n">
+        <v>4001.0</v>
+      </c>
+      <c r="I1266" s="3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J1266" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1266" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>45784.708333333</v>
+      </c>
+      <c r="B1267" s="2" t="n">
+        <v>1330.0</v>
+      </c>
+      <c r="C1267" s="3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D1267" s="2" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="E1267" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1267" s="2" t="n">
+        <v>1241.0</v>
+      </c>
+      <c r="G1267" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H1267" s="2" t="n">
+        <v>4018.0</v>
+      </c>
+      <c r="I1267" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J1267" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1267" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>45784.75</v>
+      </c>
+      <c r="B1268" s="2" t="n">
+        <v>1330.0</v>
+      </c>
+      <c r="C1268" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1268" s="2" t="n">
+        <v>1433.0</v>
+      </c>
+      <c r="E1268" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1268" s="2" t="n">
+        <v>1232.0</v>
+      </c>
+      <c r="G1268" s="3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1268" s="2" t="n">
+        <v>3995.0</v>
+      </c>
+      <c r="I1268" s="3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J1268" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1268" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>45784.791666667</v>
+      </c>
+      <c r="B1269" s="2" t="n">
+        <v>882.0</v>
+      </c>
+      <c r="C1269" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1269" s="2" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="E1269" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1269" s="2" t="n">
+        <v>887.0</v>
+      </c>
+      <c r="G1269" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1269" s="2" t="n">
+        <v>2782.0</v>
+      </c>
+      <c r="I1269" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J1269" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1269" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>45784.833333333</v>
+      </c>
+      <c r="B1270" s="2" t="n">
+        <v>618.0</v>
+      </c>
+      <c r="C1270" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1270" s="2" t="n">
+        <v>755.0</v>
+      </c>
+      <c r="E1270" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1270" s="2" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="G1270" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1270" s="2" t="n">
+        <v>2049.0</v>
+      </c>
+      <c r="I1270" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J1270" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1270" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>45784.875</v>
+      </c>
+      <c r="B1271" s="2" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="C1271" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1271" s="2" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="E1271" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1271" s="2" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="G1271" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1271" s="2" t="n">
+        <v>1714.0</v>
+      </c>
+      <c r="I1271" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J1271" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1271" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>45784.916666667</v>
+      </c>
+      <c r="B1272" s="2" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="C1272" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1272" s="2" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="E1272" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1272" s="2" t="n">
+        <v>487.0</v>
+      </c>
+      <c r="G1272" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1272" s="2" t="n">
+        <v>1391.0</v>
+      </c>
+      <c r="I1272" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1272" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1272" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>45784.958333333</v>
+      </c>
+      <c r="B1273" s="2" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="C1273" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1273" s="2" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="E1273" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1273" s="2" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="G1273" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1273" s="2" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="I1273" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1273" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1273" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1274" s="2" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="C1274" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1274" s="2" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="E1274" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1274" s="2" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="G1274" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1274" s="2" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="I1274" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1274" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1274" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>45785.041666667</v>
+      </c>
+      <c r="B1275" s="2" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="C1275" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1275" s="2" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="E1275" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1275" s="2" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="G1275" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1275" s="2" t="n">
+        <v>755.0</v>
+      </c>
+      <c r="I1275" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1275" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1275" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>45785.083333333</v>
+      </c>
+      <c r="B1276" s="2" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="C1276" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1276" s="2" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="E1276" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1276" s="2" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="G1276" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1276" s="2" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="I1276" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1276" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1276" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>45785.125</v>
+      </c>
+      <c r="B1277" s="2" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="C1277" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1277" s="2" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="E1277" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1277" s="2" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="G1277" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1277" s="2" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="I1277" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1277" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1277" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>45785.166666667</v>
+      </c>
+      <c r="B1278" s="2" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="C1278" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1278" s="2" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="E1278" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1278" s="2" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="G1278" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1278" s="2" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="I1278" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1278" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1278" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>45785.208333333</v>
+      </c>
+      <c r="B1279" s="2" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="C1279" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1279" s="2" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="E1279" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1279" s="2" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="G1279" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1279" s="2" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="I1279" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1279" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1279" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>45785.25</v>
+      </c>
+      <c r="B1280" s="2" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C1280" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1280" s="2" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="E1280" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1280" s="2" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="G1280" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1280" s="2" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="I1280" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1280" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1280" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>45785.291666667</v>
+      </c>
+      <c r="B1281" s="2" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="C1281" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1281" s="2" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="E1281" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1281" s="2" t="n">
+        <v>519.0</v>
+      </c>
+      <c r="G1281" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1281" s="2" t="n">
+        <v>1496.0</v>
+      </c>
+      <c r="I1281" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1281" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1281" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>45785.333333333</v>
+      </c>
+      <c r="B1282" s="2" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="C1282" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1282" s="2" t="n">
+        <v>652.0</v>
+      </c>
+      <c r="E1282" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1282" s="2" t="n">
+        <v>590.0</v>
+      </c>
+      <c r="G1282" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1282" s="2" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="I1282" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1282" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1282" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>45785.375</v>
+      </c>
+      <c r="B1283" s="2" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="C1283" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1283" s="2" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="E1283" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1283" s="2" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="G1283" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1283" s="2" t="n">
+        <v>1472.0</v>
+      </c>
+      <c r="I1283" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1283" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1283" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>45785.416666667</v>
+      </c>
+      <c r="B1284" s="2" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="C1284" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1284" s="2" t="n">
+        <v>523.0</v>
+      </c>
+      <c r="E1284" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1284" s="2" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="G1284" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1284" s="2" t="n">
+        <v>1378.0</v>
+      </c>
+      <c r="I1284" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1284" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1284" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>45785.458333333</v>
+      </c>
+      <c r="B1285" s="2" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="C1285" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1285" s="2" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="E1285" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1285" s="2" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="G1285" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1285" s="2" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="I1285" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1285" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1285" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>45785.5</v>
+      </c>
+      <c r="B1286" s="2" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="C1286" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1286" s="2" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="E1286" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1286" s="2" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="G1286" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1286" s="2" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="I1286" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1286" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1286" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>45785.541666667</v>
+      </c>
+      <c r="B1287" s="2" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="C1287" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1287" s="2" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="E1287" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1287" s="2" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G1287" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1287" s="2" t="n">
+        <v>714.0</v>
+      </c>
+      <c r="I1287" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1287" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1287" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>45785.583333333</v>
+      </c>
+      <c r="B1288" s="2" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="C1288" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1288" s="2" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="E1288" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1288" s="2" t="n">
+        <v>735.0</v>
+      </c>
+      <c r="G1288" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1288" s="2" t="n">
+        <v>2238.0</v>
+      </c>
+      <c r="I1288" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J1288" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1288" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>45785.625</v>
+      </c>
+      <c r="B1289" s="2" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="C1289" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1289" s="2" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="E1289" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1289" s="2" t="n">
+        <v>847.0</v>
+      </c>
+      <c r="G1289" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1289" s="2" t="n">
+        <v>2610.0</v>
+      </c>
+      <c r="I1289" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J1289" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1289" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>45785.666666667</v>
+      </c>
+      <c r="B1290" s="2" t="n">
+        <v>1009.0</v>
+      </c>
+      <c r="C1290" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1290" s="2" t="n">
+        <v>1164.0</v>
+      </c>
+      <c r="E1290" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1290" s="2" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="G1290" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1290" s="2" t="n">
+        <v>3184.0</v>
+      </c>
+      <c r="I1290" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J1290" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1290" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>45785.708333333</v>
+      </c>
+      <c r="B1291" s="2" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="C1291" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1291" s="2" t="n">
+        <v>1093.0</v>
+      </c>
+      <c r="E1291" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1291" s="2" t="n">
+        <v>953.0</v>
+      </c>
+      <c r="G1291" s="3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1291" s="2" t="n">
+        <v>2971.0</v>
+      </c>
+      <c r="I1291" s="3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J1291" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1291" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>45785.75</v>
+      </c>
+      <c r="B1292" s="2" t="n">
+        <v>832.0</v>
+      </c>
+      <c r="C1292" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1292" s="2" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="E1292" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1292" s="2" t="n">
+        <v>863.0</v>
+      </c>
+      <c r="G1292" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1292" s="2" t="n">
+        <v>2681.0</v>
+      </c>
+      <c r="I1292" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J1292" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1292" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>45785.791666667</v>
+      </c>
+      <c r="B1293" s="2" t="n">
+        <v>735.0</v>
+      </c>
+      <c r="C1293" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1293" s="2" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="E1293" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1293" s="2" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="G1293" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1293" s="2" t="n">
+        <v>2417.0</v>
+      </c>
+      <c r="I1293" s="3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J1293" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1293" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>45785.833333333</v>
+      </c>
+      <c r="B1294" s="2" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="C1294" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1294" s="2" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="E1294" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1294" s="2" t="n">
+        <v>536.0</v>
+      </c>
+      <c r="G1294" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1294" s="2" t="n">
+        <v>1540.0</v>
+      </c>
+      <c r="I1294" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1294" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1294" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>45785.875</v>
+      </c>
+      <c r="B1295" s="2" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="C1295" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1295" s="2" t="n">
+        <v>632.0</v>
+      </c>
+      <c r="E1295" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1295" s="2" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="G1295" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1295" s="2" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="I1295" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1295" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1295" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>45785.916666667</v>
+      </c>
+      <c r="B1296" s="2" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="C1296" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1296" s="2" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E1296" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1296" s="2" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="G1296" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1296" s="2" t="n">
+        <v>1310.0</v>
+      </c>
+      <c r="I1296" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1296" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1296" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>45785.958333333</v>
+      </c>
+      <c r="B1297" s="2" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="C1297" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1297" s="2" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="E1297" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1297" s="2" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="G1297" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1297" s="2" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="I1297" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1297" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1297" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1298" s="2" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="C1298" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1298" s="2" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="E1298" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1298" s="2" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="G1298" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1298" s="2" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="I1298" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1298" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1298" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>45786.041666667</v>
+      </c>
+      <c r="B1299" s="2" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="C1299" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1299" s="2" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="E1299" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1299" s="2" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="G1299" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1299" s="2" t="n">
+        <v>755.0</v>
+      </c>
+      <c r="I1299" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1299" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1299" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>45786.083333333</v>
+      </c>
+      <c r="B1300" s="2" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="C1300" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1300" s="2" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="E1300" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1300" s="2" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="G1300" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1300" s="2" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="I1300" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1300" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1300" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>45786.125</v>
+      </c>
+      <c r="B1301" s="2" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="C1301" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1301" s="2" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="E1301" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1301" s="2" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="G1301" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1301" s="2" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="I1301" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1301" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1301" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>45786.166666667</v>
+      </c>
+      <c r="B1302" s="2" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="C1302" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1302" s="2" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="E1302" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1302" s="2" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="G1302" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1302" s="2" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="I1302" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1302" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1302" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>45786.208333333</v>
+      </c>
+      <c r="B1303" s="2" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="C1303" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1303" s="2" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="E1303" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1303" s="2" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="G1303" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1303" s="2" t="n">
+        <v>948.0</v>
+      </c>
+      <c r="I1303" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1303" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1303" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>45786.25</v>
+      </c>
+      <c r="B1304" s="2" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="C1304" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1304" s="2" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="E1304" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1304" s="2" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="G1304" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1304" s="2" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="I1304" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1304" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1304" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>45786.291666667</v>
+      </c>
+      <c r="B1305" s="2" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="C1305" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1305" s="2" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="E1305" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1305" s="2" t="n">
+        <v>518.0</v>
+      </c>
+      <c r="G1305" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1305" s="2" t="n">
+        <v>1493.0</v>
+      </c>
+      <c r="I1305" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1305" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1305" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>45786.333333333</v>
+      </c>
+      <c r="B1306" s="2" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="C1306" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1306" s="2" t="n">
+        <v>606.0</v>
+      </c>
+      <c r="E1306" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1306" s="2" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="G1306" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1306" s="2" t="n">
+        <v>1612.0</v>
+      </c>
+      <c r="I1306" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1306" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1306" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>45786.375</v>
+      </c>
+      <c r="B1307" s="2" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="C1307" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1307" s="2" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="E1307" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1307" s="2" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="G1307" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1307" s="2" t="n">
+        <v>1521.0</v>
+      </c>
+      <c r="I1307" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1307" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1307" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>45786.416666667</v>
+      </c>
+      <c r="B1308" s="2" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="C1308" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1308" s="2" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="E1308" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1308" s="2" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="G1308" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1308" s="2" t="n">
+        <v>1343.0</v>
+      </c>
+      <c r="I1308" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1308" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1308" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>45786.458333333</v>
+      </c>
+      <c r="B1309" s="2" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="C1309" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1309" s="2" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="E1309" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1309" s="2" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="G1309" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1309" s="2" t="n">
+        <v>961.0</v>
+      </c>
+      <c r="I1309" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1309" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1309" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>45786.5</v>
+      </c>
+      <c r="B1310" s="2" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="C1310" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1310" s="2" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="E1310" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1310" s="2" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="G1310" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1310" s="2" t="n">
+        <v>1390.0</v>
+      </c>
+      <c r="I1310" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1310" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1310" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>45786.541666667</v>
+      </c>
+      <c r="B1311" s="2" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="C1311" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1311" s="2" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="E1311" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1311" s="2" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="G1311" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1311" s="2" t="n">
+        <v>1609.0</v>
+      </c>
+      <c r="I1311" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1311" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1311" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>45786.583333333</v>
+      </c>
+      <c r="B1312" s="2" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="C1312" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1312" s="2" t="n">
+        <v>886.0</v>
+      </c>
+      <c r="E1312" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1312" s="2" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="G1312" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1312" s="2" t="n">
+        <v>2414.0</v>
+      </c>
+      <c r="I1312" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J1312" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1312" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>45786.625</v>
+      </c>
+      <c r="B1313" s="2" t="n">
+        <v>652.0</v>
+      </c>
+      <c r="C1313" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1313" s="2" t="n">
+        <v>821.0</v>
+      </c>
+      <c r="E1313" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1313" s="2" t="n">
+        <v>731.0</v>
+      </c>
+      <c r="G1313" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1313" s="2" t="n">
+        <v>2204.0</v>
+      </c>
+      <c r="I1313" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J1313" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1313" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>45786.666666667</v>
+      </c>
+      <c r="B1314" s="2" t="n">
+        <v>875.0</v>
+      </c>
+      <c r="C1314" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1314" s="2" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="E1314" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F1314" s="2" t="n">
+        <v>895.0</v>
+      </c>
+      <c r="G1314" s="3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1314" s="2" t="n">
+        <v>2782.0</v>
+      </c>
+      <c r="I1314" s="3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J1314" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1314" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>45786.708333333</v>
+      </c>
+      <c r="B1315" s="2" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="C1315" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1315" s="2" t="n">
+        <v>899.0</v>
+      </c>
+      <c r="E1315" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1315" s="2" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="G1315" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1315" s="2" t="n">
+        <v>2435.0</v>
+      </c>
+      <c r="I1315" s="3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1315" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1315" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>45786.75</v>
+      </c>
+      <c r="B1316" s="2" t="n">
+        <v>548.0</v>
+      </c>
+      <c r="C1316" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1316" s="2" t="n">
+        <v>718.0</v>
+      </c>
+      <c r="E1316" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1316" s="2" t="n">
+        <v>645.0</v>
+      </c>
+      <c r="G1316" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1316" s="2" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="I1316" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J1316" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1316" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>45786.791666667</v>
+      </c>
+      <c r="B1317" s="2" t="n">
+        <v>603.0</v>
+      </c>
+      <c r="C1317" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1317" s="2" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="E1317" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1317" s="2" t="n">
+        <v>670.0</v>
+      </c>
+      <c r="G1317" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1317" s="2" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="I1317" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1317" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1317" s="4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -44445,7 +46405,7 @@
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 12:30</t>
+          <t>05/09/2025 20:34</t>
         </is>
       </c>
     </row>
@@ -44504,7 +46464,7 @@
       </c>
       <c r="C11" s="12" t="inlineStr">
         <is>
-          <t>45,360 Lane Points</t>
+          <t>47,376 Lane Points</t>
         </is>
       </c>
     </row>
@@ -44569,7 +46529,7 @@
       </c>
       <c r="C16" s="12" t="inlineStr">
         <is>
-          <t>05/07/2025 12:30:30</t>
+          <t>05/09/2025 20:34:46</t>
         </is>
       </c>
     </row>
